--- a/target/classes/companies/industrial/StanleyBlackAndDecker/SWK_StanleyBlackAndDecker.xlsx
+++ b/target/classes/companies/industrial/StanleyBlackAndDecker/SWK_StanleyBlackAndDecker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F5242-C5AD-433A-97BF-8FA02F0A24DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59873B32-B41C-4A42-A5E3-17EB13005467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -4902,61 +4902,6 @@
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Financials!$D$2:$M$2</c:f>
@@ -5094,61 +5039,6 @@
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Financials!$D$2:$M$2</c:f>
@@ -5235,7 +5125,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5245,8 +5135,8 @@
         <c:axId val="323890768"/>
         <c:axId val="323891152"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
@@ -5327,7 +5217,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Financials!$D$55:$M$55</c:f>
               <c:numCache>
@@ -5346,7 +5236,7 @@
                   <c:v>0.38970675233872193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3134274698861186</c:v>
+                  <c:v>1.3134274698861159</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.47285011535194593</c:v>
@@ -5358,15 +5248,15 @@
                   <c:v>0.25491468302111497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1154856089788967</c:v>
+                  <c:v>3.115485608978906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.23909249536362129</c:v>
+                  <c:v>-0.23909249536362082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0DED-4E4A-AA11-E50E447108A8}"/>
@@ -5375,17 +5265,15 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="563637232"/>
-        <c:axId val="364688608"/>
-      </c:lineChart>
+        <c:axId val="323924800"/>
+        <c:axId val="323899736"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="323890768"/>
         <c:scaling>
@@ -5492,7 +5380,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="364688608"/>
+        <c:axId val="323899736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5528,12 +5416,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563637232"/>
+        <c:crossAx val="323924800"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="563637232"/>
+      <c:valAx>
+        <c:axId val="323924800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5542,13 +5430,47 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364688608"/>
+        <c:crossAx val="323899736"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -18762,7 +18684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -19861,7 +19783,7 @@
       </c>
       <c r="F44" s="103">
         <f>Financials!$D$73</f>
-        <v>0.78890371994903241</v>
+        <v>0.7889037199490343</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19934,8 +19856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q99" sqref="Q99"/>
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19953,7 +19875,7 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20192,8 +20114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20236,7 +20158,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="65">
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -20244,7 +20166,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="13">
-        <f>AVERAGE(C28:L28)</f>
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
         <v>6.8706008991842524E-2</v>
       </c>
     </row>
@@ -20748,7 +20670,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="24">
-        <f t="shared" ref="C29:K29" si="4">C22/C19</f>
+        <f t="shared" ref="C29:L29" si="4">C22/C19</f>
         <v>1.0844381510193781</v>
       </c>
       <c r="D29" s="24">
@@ -20843,31 +20765,31 @@
       </c>
       <c r="F36" s="21">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>18213.140307067686</v>
+        <v>18213.140307067708</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="5"/>
-        <v>18759.534504066854</v>
+        <v>18759.534504066909</v>
       </c>
       <c r="H36" s="21">
         <f t="shared" si="5"/>
-        <v>19322.320526609612</v>
+        <v>19322.320526609703</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="5"/>
-        <v>19901.990129451275</v>
+        <v>19901.990129451409</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="5"/>
-        <v>20499.04981998949</v>
+        <v>20499.049819989661</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="5"/>
-        <v>21114.021300843491</v>
+        <v>21114.021300843753</v>
       </c>
       <c r="L36" s="21">
         <f t="shared" si="5"/>
-        <v>21747.44192571074</v>
+        <v>21747.441925711108</v>
       </c>
     </row>
     <row r="37" spans="2:12">
@@ -20885,31 +20807,31 @@
       </c>
       <c r="F37" s="27">
         <f>C6</f>
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="G37" s="27">
         <f>C6</f>
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="H37" s="27">
         <f>C6</f>
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="I37" s="27">
         <f>C6</f>
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="J37" s="27">
         <f>C6</f>
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="K37" s="27">
         <f>C6</f>
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="L37" s="27">
         <f>C6</f>
-        <v>2.9999999329447701E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20943,31 +20865,31 @@
       </c>
       <c r="F39" s="21">
         <f>F36*C7</f>
-        <v>1251.3521817070819</v>
+        <v>1251.3521817070825</v>
       </c>
       <c r="G39" s="21">
         <f>G36*C7</f>
-        <v>1288.8927463191974</v>
+        <v>1288.8927463192001</v>
       </c>
       <c r="H39" s="21">
         <f>H36*C7</f>
-        <v>1327.5595278445035</v>
+        <v>1327.5595278445089</v>
       </c>
       <c r="I39" s="21">
         <f>I36*C7</f>
-        <v>1367.3863127896404</v>
+        <v>1367.3863127896486</v>
       </c>
       <c r="J39" s="21">
         <f>J36*C7</f>
-        <v>1408.4079012564257</v>
+        <v>1408.4079012564398</v>
       </c>
       <c r="K39" s="21">
         <f>K36*C7</f>
-        <v>1450.6601373497074</v>
+        <v>1450.6601373497283</v>
       </c>
       <c r="L39" s="21">
         <f>L36*C7</f>
-        <v>1494.1799404974552</v>
+        <v>1494.1799404974795</v>
       </c>
     </row>
     <row r="40" spans="2:12">
@@ -20986,31 +20908,31 @@
       </c>
       <c r="F40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329449183E-2</v>
+        <v>2.9999999329449811E-2</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447826E-2</v>
+        <v>2.9999999329449526E-2</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447819E-2</v>
+        <v>2.999999932944987E-2</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447677E-2</v>
+        <v>2.9999999329449578E-2</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" si="6"/>
-        <v>2.999999932944776E-2</v>
+        <v>2.9999999329451896E-2</v>
       </c>
       <c r="K40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447746E-2</v>
+        <v>2.9999999329452284E-2</v>
       </c>
       <c r="L40" s="20">
         <f t="shared" si="6"/>
-        <v>2.9999999329447736E-2</v>
+        <v>2.9999999329449623E-2</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -21044,31 +20966,31 @@
       </c>
       <c r="F42" s="21">
         <f>F39*C8</f>
-        <v>1211.1640297916865</v>
+        <v>1211.1640297916872</v>
       </c>
       <c r="G42" s="21">
         <f>G39*C8</f>
-        <v>1247.4989498732884</v>
+        <v>1247.4989498732909</v>
       </c>
       <c r="H42" s="21">
         <f>H39*C8</f>
-        <v>1284.923917532974</v>
+        <v>1284.9239175329792</v>
       </c>
       <c r="I42" s="21">
         <f>I39*C8</f>
-        <v>1323.4716341973544</v>
+        <v>1323.4716341973624</v>
       </c>
       <c r="J42" s="21">
         <f>J39*C8</f>
-        <v>1363.1757823358182</v>
+        <v>1363.1757823358319</v>
       </c>
       <c r="K42" s="21">
         <f>K39*C8</f>
-        <v>1404.0710548918121</v>
+        <v>1404.0710548918323</v>
       </c>
       <c r="L42" s="21">
         <f>L39*C8</f>
-        <v>1446.1931855970633</v>
+        <v>1446.193185597087</v>
       </c>
     </row>
     <row r="43" spans="2:12">
@@ -21089,31 +21011,31 @@
       </c>
       <c r="F43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329449283E-2</v>
+        <v>2.9999999329449863E-2</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447826E-2</v>
+        <v>2.9999999329449311E-2</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447836E-2</v>
+        <v>2.9999999329449963E-2</v>
       </c>
       <c r="I43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447646E-2</v>
+        <v>2.9999999329449644E-2</v>
       </c>
       <c r="J43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447771E-2</v>
+        <v>2.9999999329451885E-2</v>
       </c>
       <c r="K43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447684E-2</v>
+        <v>2.9999999329452222E-2</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" si="7"/>
-        <v>2.9999999329447684E-2</v>
+        <v>2.9999999329449682E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -21325,31 +21247,31 @@
       </c>
       <c r="F53" s="21">
         <f t="shared" si="9"/>
-        <v>900.20926093126104</v>
+        <v>900.2092609312615</v>
       </c>
       <c r="G53" s="21">
         <f t="shared" si="9"/>
-        <v>860.92601026391105</v>
+        <v>860.92601026391276</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="9"/>
-        <v>823.35699855184305</v>
+        <v>823.35699855184635</v>
       </c>
       <c r="I53" s="21">
         <f t="shared" si="9"/>
-        <v>787.42741998988811</v>
+        <v>787.42741998989277</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="9"/>
-        <v>753.06573314186824</v>
+        <v>753.06573314187574</v>
       </c>
       <c r="K53" s="21">
         <f t="shared" si="9"/>
-        <v>720.20351849035433</v>
+        <v>720.20351849036467</v>
       </c>
       <c r="L53" s="21">
         <f t="shared" si="9"/>
-        <v>688.77534220265852</v>
+        <v>688.77534220266978</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21430,7 +21352,7 @@
       </c>
       <c r="C59" s="25">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>13577.359943415187</v>
+        <v>13577.359943415409</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
@@ -21439,7 +21361,7 @@
       </c>
       <c r="C60" s="23">
         <f>C59/C55</f>
-        <v>6004.1528535221805</v>
+        <v>6004.1528535222787</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21449,7 +21371,7 @@
       </c>
       <c r="C62" s="71">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>22024.652595380401</v>
+        <v>22024.652595380659</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21461,7 +21383,7 @@
       </c>
       <c r="C64" s="70">
         <f>C62/(C11/1000000)</f>
-        <v>143.92950593034467</v>
+        <v>143.92950593034638</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21522,7 +21444,7 @@
       </c>
       <c r="C72" s="72">
         <f>SUM(C53:L53)+C70</f>
-        <v>14101.990708107875</v>
+        <v>14101.990708107911</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21532,7 +21454,7 @@
       </c>
       <c r="C74" s="70">
         <f>C72/(C11/1000000)</f>
-        <v>92.155485606978402</v>
+        <v>92.155485606978644</v>
       </c>
     </row>
   </sheetData>
@@ -21629,7 +21551,7 @@
   <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21732,47 +21654,47 @@
       </c>
       <c r="C7" s="90">
         <f>P6*(1+P7)</f>
-        <v>3.275400066627562</v>
+        <v>3.2754000666275669</v>
       </c>
       <c r="D7" s="90">
         <f>C7*(1+P7)</f>
-        <v>3.3736620664300618</v>
+        <v>3.3736620664300774</v>
       </c>
       <c r="E7" s="90">
         <f>D7*(1+P7)</f>
-        <v>3.474871926160747</v>
+        <v>3.4748719261607732</v>
       </c>
       <c r="F7" s="90">
         <f>E7*(1+P7)</f>
-        <v>3.5791180816154862</v>
+        <v>3.5791180816155177</v>
       </c>
       <c r="G7" s="90">
         <f>F7*(1+P7)</f>
-        <v>3.6864916216639649</v>
+        <v>3.686491621664008</v>
       </c>
       <c r="H7" s="90">
         <f>G7*(1+P7)</f>
-        <v>3.7970863678418985</v>
+        <v>3.7970863678419535</v>
       </c>
       <c r="I7" s="90">
         <f>H7*(1+P7)</f>
-        <v>3.9109989563310106</v>
+        <v>3.9109989563310723</v>
       </c>
       <c r="J7" s="90">
         <f>I7*(1+P7)</f>
-        <v>4.028328922398412</v>
+        <v>4.0283289223984822</v>
       </c>
       <c r="K7" s="90">
         <f>J7*(1+P7)</f>
-        <v>4.1491787873691592</v>
+        <v>4.1491787873692383</v>
       </c>
       <c r="L7" s="90">
         <f>K7*(1+P7)</f>
-        <v>4.2736541482079931</v>
+        <v>4.2736541482080854</v>
       </c>
       <c r="M7" s="159">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>93.660782968822502</v>
+        <v>93.660782968824819</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
@@ -21788,47 +21710,47 @@
       </c>
       <c r="C8" s="90">
         <f>C7/(1+P8)</f>
-        <v>3.0412315101936058</v>
+        <v>3.041231510193624</v>
       </c>
       <c r="D8" s="90">
         <f>D7/(1+P8)^2</f>
-        <v>2.9085185234056357</v>
+        <v>2.908518523405661</v>
       </c>
       <c r="E8" s="90">
         <f>E7/(1+P8)^3</f>
-        <v>2.7815968539847091</v>
+        <v>2.7815968539847304</v>
       </c>
       <c r="F8" s="90">
         <f>F7/(1+P8)^4</f>
-        <v>2.6602137809450532</v>
+        <v>2.6602137809450719</v>
       </c>
       <c r="G8" s="90">
         <f>G7/(1+P8)^5</f>
-        <v>2.544127611516517</v>
+        <v>2.5441276115165561</v>
       </c>
       <c r="H8" s="90">
         <f>H7/(1+P8)^6</f>
-        <v>2.4331071998962894</v>
+        <v>2.4331071998963223</v>
       </c>
       <c r="I8" s="90">
         <f>I7/(1+P8)^7</f>
-        <v>2.3269314870012869</v>
+        <v>2.326931487001326</v>
       </c>
       <c r="J8" s="90">
         <f>J7/(1+P8)^8</f>
-        <v>2.225389060304789</v>
+        <v>2.2253890603048267</v>
       </c>
       <c r="K8" s="90">
         <f>K7/(1+P8)^9</f>
-        <v>2.1282777328808793</v>
+        <v>2.1282777328809162</v>
       </c>
       <c r="L8" s="90">
         <f>L7/(1+P8)^10</f>
-        <v>2.0354041408185077</v>
+        <v>2.0354041408185504</v>
       </c>
       <c r="M8" s="159">
         <f>M7/POWER((1+P8),10)</f>
-        <v>44.60762122432908</v>
+        <v>44.607621224330096</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
@@ -21849,7 +21771,7 @@
       </c>
       <c r="C10" s="95">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>69.692419125276345</v>
+        <v>69.692419125277695</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -22322,8 +22244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AJ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24643,7 +24565,7 @@
       </c>
       <c r="H55" s="126">
         <f t="shared" si="106"/>
-        <v>1.3134274698861186</v>
+        <v>1.3134274698861159</v>
       </c>
       <c r="I55" s="126">
         <f t="shared" si="106"/>
@@ -24659,11 +24581,11 @@
       </c>
       <c r="L55" s="126">
         <f t="shared" si="106"/>
-        <v>3.1154856089788967</v>
+        <v>3.115485608978906</v>
       </c>
       <c r="M55" s="126">
         <f t="shared" si="106"/>
-        <v>-0.23909249536362129</v>
+        <v>-0.23909249536362082</v>
       </c>
       <c r="O55" s="107"/>
       <c r="P55" s="107"/>
@@ -25152,7 +25074,7 @@
       </c>
       <c r="D73" s="121">
         <f>AVERAGE(I55:M55)</f>
-        <v>0.78890371994903241</v>
+        <v>0.7889037199490343</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">

--- a/target/classes/companies/industrial/StanleyBlackAndDecker/SWK_StanleyBlackAndDecker.xlsx
+++ b/target/classes/companies/industrial/StanleyBlackAndDecker/SWK_StanleyBlackAndDecker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59873B32-B41C-4A42-A5E3-17EB13005467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="163">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
   </si>
   <si>
     <t>sector median (19.16)</t>
@@ -1244,7 +1247,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1366,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1381,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1407,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1427,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1749,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.5025022984799025E-2</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7107054718197681E-2</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0900123846987457E-2</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.349506188812697E-2</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4650878858076104E-2</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3154251598933907E-2</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3755701322184966E-2</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8611768535539606E-2</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10066552377673137</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6947023888481355E-3</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1914,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.10990413016122227</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14977149146401397</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15485418914095839</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15600128970099109</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17076180478118475</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12428488505849115</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14735651877324146</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15795294309129881</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1486523465446272</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2745622542588966E-2</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2079,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.8826852675240458E-2</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9984656213573669E-2</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0559982790093951E-2</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3239313027639447E-2</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1308592546746098E-2</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8216041399141695E-2</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1466668204413626E-2</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13285490387561255</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9729732316184046E-3</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.11495568088717545</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2637,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22.409999847412109</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.190000534057617</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.299999237060547</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.430000305175781</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.450000762939453</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.420000076293945</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.189998626708984</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.889999389648438</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.709999084472656</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.299999237060547</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2851,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18.870000839233398</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.109999656677246</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.829999923706055</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.520000457763672</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.729999542236328</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.130000114440918</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.780000686645508</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.909999847412109</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.399999618530273</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5900001525878906</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3306,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0899999141693115</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7600002288818359</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7899999618530273</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5300002098083496</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0500001907348633</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8499999046325684</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1100001335144043</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4600000381469727</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.159999847412109</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7600002288818359</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3761,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10889.5</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11338.599609375</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11171.7998046875</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11593.5</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12966.599609375</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13982.400390625</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12912.900390625</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12750</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15281.2998046875</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16947.400390625</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4195,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3799.39990234375</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3839.800048828125</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3792.10009765625</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3815.300048828125</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2828.199951171875</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3819.800048828125</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3176.39990234375</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4245.39990234375</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4353.60009765625</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5352.89990234375</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4332,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1196.801025390625</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1698.198974609375</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1730</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1808.6009521484375</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2214.199951171875</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1737.801025390625</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1902.800048828125</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2013.9000244140625</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2271.60107421875</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>893.90118408203125</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4455,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1746295513940126</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2611013822519599</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1919653743677747</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1095311513000858</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2773010629302184</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1980652520155464</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6693293151321849</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1080489849931552</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9165337378410696</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9882456782298306</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4951,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>531.70001220703125</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1020.2999877929688</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>849.0999755859375</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>276.29998779296875</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>814</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1181.0999755859375</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1693.9000244140625</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152.39999389648438</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1948.199951171875</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5088,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>312.70001220703125</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.29998779296875</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>319.89999389648438</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>330.89999389648438</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>362.89999389648438</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>384.89999389648438</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>402</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>431.79998779296875</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>474.79998779296875</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>465.79998779296875</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5227,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.58811360734984008</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31490737198574215</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35544443766276002</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38970675233872193</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3134274698861159</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47285011535194593</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34036068775682521</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25491468302111497</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.115485608978906</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.23909249536362082</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5747,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12518.5</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11900.2998046875</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11465.7001953125</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10846.400390625</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14538.7001953125</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14838.599609375</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16140</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17530.30078125</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19653.599609375</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16988.599609375</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5884,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4016.60009765625</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3948.800048828125</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3662.10009765625</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4788.5</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4559</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4569.39990234375</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4456.60009765625</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6036</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8526.400390625</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7974.7001953125</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6313,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3236</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2832</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2802.60009765625</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2807.5</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4391.5</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4001.60009765625</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4405.7001953125</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4558.2998046875</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8767.400390625</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6569.2001953125</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6450,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6418.60009765625</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6505.2001953125</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6466</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6453.7998046875</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6401.2001953125</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7566.5</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7048.7001953125</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7941.60009765625</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7820.2001953125</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8679.900390625</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6879,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6880.5</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6511.899658203125</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5859.2001953125</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6373.6005859375</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8305</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7839.8994140625</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9142.19970703125</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11066.40087890625</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11592.3994140625</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9714.19921875</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +6996,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9654.60009765625</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9337.2001953125</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9268.60009765625</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9261.2998046875</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10792.7001953125</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11568.10009765625</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11454.400390625</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12499.89990234375</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16587.6005859375</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15249.1005859375</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7135,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4031829224120704</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4338673329448957</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5818882763335773</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4530718829669564</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2995424678281156</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4755419026048335</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2529151361477524</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1295361553519985</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.430903128287266</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5697743316303654</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7598,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4016.60009765625</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3948.800048828125</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3662.10009765625</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4788.5</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4559</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4569.39990234375</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4456.60009765625</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6036</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8526.400390625</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7974.7001953125</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7715,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3236</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2832</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2802.60009765625</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2807.5</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4391.5</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4001.60009765625</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4405.7001953125</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4558.2998046875</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8767.400390625</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6569.2001953125</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7893,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2412237631817831</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3943502997274471</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3066795011956147</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7056099732858414</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0381418649664125</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1418931904315133</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0115531924750363</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3241779300678986</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97251180632086776</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2139529863929104</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8473,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1196.801025390625</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1698.198974609375</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1730</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1808.6009521484375</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2214.199951171875</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1737.801025390625</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1902.800048828125</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2013.9000244140625</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2271.60107421875</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>893.90118408203125</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8666,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>490.29998779296875</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>760.9000244140625</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>903.79998779296875</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>968</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1227.300048828125</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>603.4000244140625</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>952.4000244140625</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1129.800048828125</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1538.300048828125</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>164.30000305175781</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8862,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>531.70001220703125</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1020.2999877929688</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>849.0999755859375</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>276.29998779296875</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>814</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1181.0999755859375</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1693.9000244140625</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152.39999389648438</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1948.199951171875</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9302,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.9652072554581301</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8009037197483639</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9744309832873927</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1912770520778775</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4264285033093609</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1090274092892587</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6240642625402879</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7941340446907565</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4588362272112487</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65816620533839221</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9466,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.1259354377293658</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.684762732109158</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.425313313513858</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.187647656110785</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.777845259820952</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6965276280425075</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.417624367596934</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.209281781772837</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.269902061535682</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6913386204251608</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9630,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.8499999046325684</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.369999885559082</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.170000076293945</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.079999923706055</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.720000267028809</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.690000057220459</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.220000267028809</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.350000381469727</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.75</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0500001907348633</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10113,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>158.7760009765625</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.73699951171875</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.70599365234375</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.20700073242188</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152.44900512695313</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.77999877929688</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156.38099670410156</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>162.427001953125</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.02400207519531</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156.55299377441406</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18071,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18165,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18684,24 +18687,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,49 +18858,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
         <v>3.7288456298139883</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
-        <v>2.9652072554581301</v>
-      </c>
-      <c r="H12" s="119">
+        <v>2.96520725545813</v>
+      </c>
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
-        <v>4.8009037197483639</v>
-      </c>
-      <c r="I12" s="119">
+        <v>4.800903719748364</v>
+      </c>
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
-        <v>5.9744309832873927</v>
-      </c>
-      <c r="J12" s="119">
+        <v>5.974430983287393</v>
+      </c>
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
         <v>6.1912770520778775</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
-        <v>6.4264285033093609</v>
-      </c>
-      <c r="L12" s="119">
+        <v>6.426428503309361</v>
+      </c>
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
         <v>3.1090274092892587</v>
       </c>
-      <c r="M12" s="119">
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
-        <v>4.6240642625402879</v>
-      </c>
-      <c r="N12" s="119">
+        <v>4.624064262540288</v>
+      </c>
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
         <v>4.7941340446907565</v>
       </c>
-      <c r="O12" s="119">
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
-        <v>5.4588362272112487</v>
-      </c>
-      <c r="P12" s="119">
+        <v>5.458836227211249</v>
+      </c>
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
-        <v>0.65816620533839221</v>
+        <v>0.6581662053383922</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18929,47 +18932,47 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
-        <v>8.6569348918746254</v>
-      </c>
-      <c r="G14" s="40">
+        <v>8.656934891874625</v>
+      </c>
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
-        <v>7.1259354377293658</v>
-      </c>
-      <c r="H14" s="40">
+        <v>7.125935437729366</v>
+      </c>
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
         <v>11.684762732109158</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
         <v>15.425313313513858</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
         <v>15.187647656110785</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
         <v>14.777845259820952</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
         <v>7.6965276280425075</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
         <v>10.417624367596934</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
         <v>10.209281781772837</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>13.269902061535682</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
         <v>1.6913386204251608</v>
       </c>
@@ -19006,53 +19009,53 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>7.6997938384193873E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.07699793838419387</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
-        <v>9.4120001792907715</v>
-      </c>
-      <c r="G16" s="40">
+        <v>9.412000179290771</v>
+      </c>
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
-        <v>5.8499999046325684</v>
-      </c>
-      <c r="H16" s="40">
+        <v>5.849999904632568</v>
+      </c>
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
         <v>8.369999885559082</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
         <v>10.170000076293945</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
         <v>11.079999923706055</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
         <v>12.720000267028809</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
         <v>6.690000057220459</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
         <v>10.220000267028809</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
         <v>11.350000381469727</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
         <v>11.75</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
-        <v>7.0500001907348633</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
@@ -19093,47 +19096,47 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
         <v>1.1328178211376454</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
-        <v>1.2412237631817831</v>
-      </c>
-      <c r="H18" s="42">
+        <v>1.241223763181783</v>
+      </c>
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
-        <v>1.3943502997274471</v>
-      </c>
-      <c r="I18" s="42">
+        <v>1.394350299727447</v>
+      </c>
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
         <v>1.3066795011956147</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
         <v>1.7056099732858414</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
         <v>1.0381418649664125</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
         <v>1.1418931904315133</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
         <v>1.0115531924750363</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
         <v>1.3241779300678986</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
-        <v>0.97251180632086776</v>
-      </c>
-      <c r="P18" s="42">
+        <v>0.9725118063208678</v>
+      </c>
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
         <v>1.2139529863929104</v>
       </c>
@@ -19166,7 +19169,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D20" s="55" t="str">
         <f>U11</f>
@@ -19175,47 +19178,47 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
         <v>1.3717341308044433</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
         <v>1.4031829224120704</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
         <v>1.4338673329448957</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
         <v>1.5818882763335773</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
         <v>1.4530718829669564</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
         <v>1.2995424678281156</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
         <v>1.4755419026048335</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>1.2529151361477524</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>1.1295361553519985</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>1.430903128287266</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
         <v>1.5697743316303654</v>
       </c>
@@ -19248,58 +19251,58 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>T11</f>
         <v>J</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
         <v>2.7760445936423572</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>3.1746295513940126</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
-        <v>2.2611013822519599</v>
-      </c>
-      <c r="I22" s="42">
+        <v>2.26110138225196</v>
+      </c>
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
         <v>2.1919653743677747</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
-        <v>2.1095311513000858</v>
-      </c>
-      <c r="K22" s="42">
+        <v>2.109531151300086</v>
+      </c>
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
         <v>1.2773010629302184</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
         <v>2.1980652520155464</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
         <v>1.6693293151321849</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
-        <v>2.1080489849931552</v>
-      </c>
-      <c r="O22" s="42">
+        <v>2.108048984993155</v>
+      </c>
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
         <v>1.9165337378410696</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
-        <v>5.9882456782298306</v>
+        <v>5.988245678229831</v>
       </c>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -19342,43 +19345,43 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
         <v>158.7760009765625</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
         <v>159.73699951171875</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
         <v>152.70599365234375</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
         <v>148.20700073242188</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
-        <v>152.44900512695313</v>
-      </c>
-      <c r="L24" s="40">
+        <v>152.44900512695312</v>
+      </c>
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
         <v>156.77999877929688</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
         <v>156.38099670410156</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
         <v>162.427001953125</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>165.02400207519531</v>
-      </c>
-      <c r="P24" s="40">
+        <v>165.0240020751953</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
         <v>156.55299377441406</v>
       </c>
@@ -19420,49 +19423,49 @@
         <v>L</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="57">
+        <v>156</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
         <v>24.501999282836913</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
-        <v>22.409999847412109</v>
-      </c>
-      <c r="H26" s="44">
+        <v>22.40999984741211</v>
+      </c>
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>22.190000534057617</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
         <v>19.299999237060547</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
-        <v>17.430000305175781</v>
-      </c>
-      <c r="K26" s="44">
+        <v>17.43000030517578</v>
+      </c>
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
         <v>21.450000762939453</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
         <v>18.420000076293945</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>38.189998626708984</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
         <v>28.889999389648438</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>16.709999084472656</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
         <v>20.299999237060547</v>
       </c>
@@ -19502,51 +19505,51 @@
         <v>J</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="57">
+        <v>157</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>14.16200008392334</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
-        <v>18.870000839233398</v>
-      </c>
-      <c r="H28" s="44">
+        <v>18.8700008392334</v>
+      </c>
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
         <v>12.109999656677246</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
         <v>14.829999923706055</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
         <v>11.520000457763672</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>19.729999542236328</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
         <v>12.130000114440918</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
         <v>16.780000686645508</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
-        <v>14.909999847412109</v>
-      </c>
-      <c r="O28" s="44">
+        <v>14.90999984741211</v>
+      </c>
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
         <v>17.399999618530273</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
-        <v>9.5900001525878906</v>
+        <v>9.59000015258789</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -19582,7 +19585,7 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
         <v>19.260000228881836</v>
       </c>
@@ -19618,7 +19621,7 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
         <v>-2.190698549703554</v>
       </c>
@@ -19635,7 +19638,7 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
         <v>-2.138666872449114</v>
       </c>
@@ -19659,7 +19662,7 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
         <v>-0.12449648774209976</v>
       </c>
@@ -19676,9 +19679,9 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
-        <v>-5.669201222393494E-2</v>
+        <v>-0.05669201222393494</v>
       </c>
     </row>
     <row r="37" spans="2:17">
@@ -19701,7 +19704,7 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
         <v>-0.22908508232142644</v>
       </c>
@@ -19718,7 +19721,7 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
         <v>-0.10356755059223788</v>
       </c>
@@ -19742,9 +19745,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>3.9212282809739429E-2</v>
+        <v>0.03921228280973943</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19762,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>4.5224341311567162E-2</v>
+        <v>0.04522434131156716</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,7 +19784,7 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
         <v>0.7889037199490343</v>
       </c>
@@ -19798,9 +19801,9 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
-        <v>3.8891788845193398E-2</v>
+        <v>0.0388917888451934</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="18.5">
@@ -19815,9 +19818,9 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
-        <v>5.1961403703766507E-2</v>
+        <v>0.05196140370376651</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="18.5">
@@ -19832,9 +19835,9 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
-        <v>9.0853192548959905E-2</v>
+        <v>0.0908531925489599</v>
       </c>
     </row>
   </sheetData>
@@ -19862,7 +19865,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19880,9 +19883,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19913,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,7 +19921,7 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="58" t="n">
         <v>12.050000190734863</v>
       </c>
     </row>
@@ -19926,47 +19929,47 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>6560100</v>
+      <c r="C6" s="59" t="n">
+        <v>6560100.0</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>8689000</v>
+      <c r="C7" s="59" t="n">
+        <v>8689000.0</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>338500</v>
+      <c r="C8" s="59" t="n">
+        <v>338500.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>37900</v>
+      <c r="C9" s="59" t="n">
+        <v>37900.0</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>-132400</v>
+      <c r="C10" s="59" t="n">
+        <v>-132400.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="60" t="n">
         <v>1.309999942779541</v>
       </c>
       <c r="G11" s="33"/>
@@ -19992,7 +19995,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,25 +20003,25 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>15249100</v>
+        <v>1.52491E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.2198031359227759E-2</v>
+        <v>0.02219803135922776</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
         <v>0.14696999502181998</v>
       </c>
@@ -20027,11 +20030,11 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.2198031359227759E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.02219803135922776</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20042,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>27299100.190734901</v>
-      </c>
-      <c r="K21" t="s">
+        <v>2.72991001907349E7</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20054,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
-        <v>0.44140649715716912</v>
-      </c>
-      <c r="K22" t="s">
+        <v>0.4414064971571691</v>
+      </c>
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,9 +20066,9 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
-        <v>0.55859350284283082</v>
+        <v>0.5585935028428308</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="14.5" customHeight="1" thickTop="1">
@@ -20079,9 +20082,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>7.6997938384193873E-2</v>
+        <v>0.07699793838419387</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20114,20 +20117,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20143,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>7.6997938384193873E-2</v>
+        <v>0.07699793838419387</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,33 +20160,33 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>2.9999999329447746E-2</v>
+      <c r="C6" s="65" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="13" t="n">
         <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
-        <v>6.8706008991842524E-2</v>
+        <v>0.06870600899184252</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
-        <v>0.96788421956433468</v>
+        <v>-0.31466191084336137</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="66" t="n">
         <v>12.949999809265137</v>
       </c>
     </row>
@@ -20191,16 +20194,16 @@
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>9.9999997764825821E-3</v>
+      <c r="C10" s="67" t="n">
+        <v>0.05000000074505806</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>153023888</v>
+      <c r="C11" s="59" t="n">
+        <v>1.53023888E8</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,43 +20253,43 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
         <v>10889.5</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
         <v>11338.599609375</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
         <v>11171.7998046875</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
         <v>11593.5</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
         <v>12966.599609375</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
         <v>13982.400390625</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
         <v>12912.900390625</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>12750</v>
-      </c>
-      <c r="K16" s="21">
+        <v>12750.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
         <v>15281.2998046875</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
         <v>16947.400390625</v>
       </c>
@@ -20296,39 +20299,39 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
-        <v>4.1241527101795308E-2</v>
-      </c>
-      <c r="E17" s="20">
+        <v>0.04124152710179531</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-1.4710794139832428E-2</v>
-      </c>
-      <c r="F17" s="20">
+        <v>-0.014710794139832428</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>3.7746844974393623E-2</v>
-      </c>
-      <c r="G17" s="20">
+        <v>0.03774684497439362</v>
+      </c>
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>0.11843702155302541</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.1184370215530254</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>7.8339797005497452E-2</v>
-      </c>
-      <c r="I17" s="20">
+        <v>0.07833979700549745</v>
+      </c>
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-7.6489012624547964E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>-0.07648901262454796</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-1.2615321554193095E-2</v>
-      </c>
-      <c r="K17" s="20">
+        <v>-0.012615321554193095</v>
+      </c>
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>0.19853331801470589</v>
-      </c>
-      <c r="L17" s="20">
+        <v>0.1985333180147059</v>
+      </c>
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.10902872185168619</v>
       </c>
@@ -20350,45 +20353,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
         <v>490.29998779296875</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
         <v>760.9000244140625</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>903.79998779296875</v>
-      </c>
-      <c r="F19" s="21">
+        <v>903.7999877929688</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
-        <v>968</v>
-      </c>
-      <c r="G19" s="21">
+        <v>968.0</v>
+      </c>
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
         <v>1227.300048828125</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
         <v>603.4000244140625</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
         <v>952.4000244140625</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
         <v>1129.800048828125</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
         <v>1538.300048828125</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>164.30000305175781</v>
+        <v>164.3000030517578</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20396,84 +20399,84 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
-        <v>0.55190708414897183</v>
-      </c>
-      <c r="E20" s="20">
+        <v>0.5519070841489718</v>
+      </c>
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
         <v>0.18780386226028475</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>7.1033428937971418E-2</v>
-      </c>
-      <c r="G20" s="20">
+        <v>0.07103342893797142</v>
+      </c>
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.26787195126872415</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.50835166592699566</v>
-      </c>
-      <c r="I20" s="20">
+        <v>-0.5083516659269957</v>
+      </c>
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.57838910487101747</v>
-      </c>
-      <c r="J20" s="20">
+        <v>0.5783891048710175</v>
+      </c>
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.18626629553396254</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.36156840356283498</v>
-      </c>
-      <c r="L20" s="20">
+        <v>0.361568403562835</v>
+      </c>
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.89319378675381111</v>
+        <v>-0.8931937867538111</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
-        <v>531.70001220703125</v>
-      </c>
-      <c r="D22" s="25">
+        <v>531.7000122070312</v>
+      </c>
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
         <v>1020.2999877929688</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>900</v>
-      </c>
-      <c r="F22" s="25">
+        <v>900.0</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
         <v>849.0999755859375</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
         <v>276.29998779296875</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>814</v>
-      </c>
-      <c r="I22" s="25">
+        <v>814.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
         <v>1181.0999755859375</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
         <v>1693.9000244140625</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
         <v>152.39999389648438</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
         <v>-1948.199951171875</v>
       </c>
@@ -20483,39 +20486,39 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>0.91893918444314249</v>
-      </c>
-      <c r="E23" s="26">
+        <v>0.9189391844431425</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
         <v>-0.11790648753529064</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-5.6555582682291668E-2</v>
-      </c>
-      <c r="G23" s="26">
+        <v>-0.05655558268229167</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-0.67459663674786607</v>
-      </c>
-      <c r="H23" s="26">
+        <v>-0.6745966367478661</v>
+      </c>
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>1.9460732390981084</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.45098277099009582</v>
-      </c>
-      <c r="J23" s="26">
+        <v>0.4509827709900958</v>
+      </c>
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.43417158532555766</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.9100301129346775</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-13.78346475850366</v>
       </c>
@@ -20537,45 +20540,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
         <v>1196.801025390625</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
         <v>1698.198974609375</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>1730</v>
-      </c>
-      <c r="F25" s="62">
+        <v>1730.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
         <v>1808.6009521484375</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
         <v>2214.199951171875</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
         <v>1737.801025390625</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
         <v>1902.800048828125</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
         <v>2013.9000244140625</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
         <v>2271.60107421875</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>893.90118408203125</v>
+        <v>893.9011840820312</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20583,39 +20586,39 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
         <v>0.41894846226012894</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
-        <v>1.8726324692275753E-2</v>
-      </c>
-      <c r="F26" s="63">
+        <v>0.018726324692275753</v>
+      </c>
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>4.5434076386380057E-2</v>
-      </c>
-      <c r="G26" s="63">
+        <v>0.04543407638638006</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
         <v>0.22426118848473806</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>-0.21515623533868869</v>
-      </c>
-      <c r="I26" s="63">
+        <v>-0.2151562353386887</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
-        <v>9.4947016963815439E-2</v>
-      </c>
-      <c r="J26" s="63">
+        <v>0.09494701696381544</v>
+      </c>
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
-        <v>5.8387624939551956E-2</v>
-      </c>
-      <c r="K26" s="63">
+        <v>0.058387624939551956</v>
+      </c>
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
-        <v>0.12796119304862991</v>
-      </c>
-      <c r="L26" s="63">
+        <v>0.1279611930486299</v>
+      </c>
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
         <v>-0.6064884832872951</v>
       </c>
@@ -20624,88 +20627,91 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
-        <v>4.5025022984799025E-2</v>
-      </c>
-      <c r="D28" s="24">
+        <v>0.045025022984799025</v>
+      </c>
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>6.7107054718197681E-2</v>
-      </c>
-      <c r="E28" s="24">
+        <v>0.06710705471819768</v>
+      </c>
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>8.0900123846987457E-2</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0.08090012384698746</v>
+      </c>
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>8.349506188812697E-2</v>
-      </c>
-      <c r="G28" s="24">
+        <v>0.08349506188812697</v>
+      </c>
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>9.4650878858076104E-2</v>
-      </c>
-      <c r="H28" s="24">
+        <v>0.0946508788580761</v>
+      </c>
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.3154251598933907E-2</v>
-      </c>
-      <c r="I28" s="24">
+        <v>0.04315425159893391</v>
+      </c>
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>7.3755701322184966E-2</v>
-      </c>
-      <c r="J28" s="24">
+        <v>0.07375570132218497</v>
+      </c>
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>8.8611768535539606E-2</v>
-      </c>
-      <c r="K28" s="24">
+        <v>0.0886117685355396</v>
+      </c>
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.10066552377673137</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>9.6947023888481355E-3</v>
+        <v>0.009694702388848135</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
         <v>1.0844381510193781</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.340912018735523</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.99579554343406407</v>
-      </c>
-      <c r="F29" s="24">
+        <v>0.9957955434340641</v>
+      </c>
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.87716939626646484</v>
-      </c>
-      <c r="G29" s="24">
+        <v>0.8771693962664648</v>
+      </c>
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.22512831157856639</v>
-      </c>
-      <c r="H29" s="24">
+        <v>0.2251283115785664</v>
+      </c>
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.349022152908333</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.2401301399719915</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.4992918668847954</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>9.9070395279894599E-2</v>
-      </c>
-      <c r="L29" s="24"/>
+        <v>0.0990703952798946</v>
+      </c>
+      <c r="L29" s="24" t="n">
+        <f t="shared" si="4"/>
+        <v>-11.857577084512625</v>
+      </c>
     </row>
     <row r="32" spans="2:12" ht="20" thickBot="1">
       <c r="B32" s="3" t="s">
@@ -20751,43 +20757,43 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
         <v>16289.841236073993</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
         <v>16853.469756338294</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
-        <v>17682.660503810519</v>
-      </c>
-      <c r="F36" s="21">
+        <v>17682.66050381052</v>
+      </c>
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
         <v>18213.140307067708</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>18759.534504066909</v>
-      </c>
-      <c r="H36" s="21">
+        <v>18759.53450406691</v>
+      </c>
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>19322.320526609703</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>19901.990129451409</v>
-      </c>
-      <c r="J36" s="21">
+        <v>19901.99012945141</v>
+      </c>
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>20499.049819989661</v>
-      </c>
-      <c r="K36" s="21">
+        <v>20499.04981998966</v>
+      </c>
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>21114.021300843753</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
         <v>21747.441925711108</v>
       </c>
@@ -20796,42 +20802,42 @@
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>-3.880000114440918E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>3.4600000828504562E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>4.9200002104043961E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="C37" s="68" t="n">
+        <v>-0.03880000114440918</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.03460000082850456</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.04920000210404396</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>2.9999999329447746E-2</v>
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20851,88 +20857,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
         <v>1119.209978441387</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
         <v>1157.9346446227248</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
         <v>1214.9050315745023</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
         <v>1251.3521817070825</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
         <v>1288.8927463192001</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>1327.5595278445089</v>
-      </c>
-      <c r="I39" s="21">
+        <v>1327.559527844509</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
         <v>1367.3863127896486</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
         <v>1408.4079012564398</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
         <v>1450.6601373497283</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
         <v>1494.1799404974795</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
         <v>5.8119900039734755</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>3.4600000828500302E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.0346000008285003</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>4.920000210403902E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.04920000210403902</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329449811E-2</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.02999999932944981</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329449526E-2</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.029999999329449526</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.999999932944987E-2</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.02999999932944987</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329449578E-2</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.029999999329449578</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329451896E-2</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.029999999329451896</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329452284E-2</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.029999999329452284</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>2.9999999329449623E-2</v>
+        <v>0.029999999329449623</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20952,180 +20958,177 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>1083.2656765123577</v>
-      </c>
-      <c r="D42" s="21">
+        <v>-352.17275045132465</v>
+      </c>
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>1120.7466698171713</v>
-      </c>
-      <c r="E42" s="21">
+        <v>-364.35792790871324</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
-        <v>1175.8874083302705</v>
-      </c>
-      <c r="F42" s="21">
+        <v>-382.284338728446</v>
+      </c>
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>1211.1640297916872</v>
-      </c>
-      <c r="G42" s="21">
+        <v>-393.7528686339585</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>1247.4989498732909</v>
-      </c>
-      <c r="H42" s="21">
+        <v>-405.5654544289468</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>1284.9239175329792</v>
-      </c>
-      <c r="I42" s="21">
+        <v>-417.73241778986363</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>1323.4716341973624</v>
-      </c>
-      <c r="J42" s="21">
+        <v>-430.264390043449</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>1363.1757823358319</v>
-      </c>
-      <c r="K42" s="21">
+        <v>-443.1723214562391</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>1404.0710548918323</v>
-      </c>
-      <c r="L42" s="21">
+        <v>-456.46749080275856</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>1446.193185597087</v>
+        <v>-470.1615152207565</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>-1.5560341359523979</v>
-      </c>
-      <c r="D43" s="20">
+        <v>-0.8192317219598064</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>3.4600000828500413E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.03460000082849327</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>4.9200002104038722E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.049200002104041275</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449863E-2</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.029999999329449696</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449311E-2</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.029999999329451386</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449963E-2</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.029999999329450754</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449644E-2</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.029999999329449887</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329451885E-2</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.02999999932945097</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329452222E-2</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.029999999329453454</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>2.9999999329449682E-2</v>
+        <v>0.029999999329448697</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
-        <f>L25*(1+C46)</f>
-        <v>902.84019572304646</v>
-      </c>
-      <c r="D45" s="21">
-        <f>C45*(1+D46)</f>
-        <v>911.86859747847359</v>
-      </c>
-      <c r="E45" s="21">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>920.98728324943784</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="C45" s="60" t="n">
+        <v>1061.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>2758.0</v>
+      </c>
+      <c r="F45" s="21" t="n">
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>2895.9000020548756</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>930.19715587607334</v>
-      </c>
-      <c r="G45" s="21">
+        <v>3040.6950043152433</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>939.49912722691602</v>
-      </c>
-      <c r="H45" s="21">
+        <v>3192.7297567965024</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>948.89411828918833</v>
-      </c>
-      <c r="I45" s="21">
+        <v>3352.3662470151003</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>958.38305925998304</v>
-      </c>
-      <c r="J45" s="21">
+        <v>3519.984561863569</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>967.96688963836505</v>
-      </c>
-      <c r="K45" s="21">
+        <v>3695.983792579348</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>977.64655831838866</v>
-      </c>
-      <c r="L45" s="21">
-        <f t="shared" si="8"/>
-        <v>987.42302368304934</v>
+        <v>3880.782984962047</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>9.9999997764825821E-3</v>
+        <v>0.05000000074505806</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21175,43 +21178,43 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.0769979383841939</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
-        <v>1.1599245592838039</v>
-      </c>
-      <c r="E51" s="61">
+        <v>1.159924559283804</v>
+      </c>
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.2492363590298514</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.3454249832297267</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.4490199331890043</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
-        <v>1.5605914807221599</v>
-      </c>
-      <c r="I51" s="61">
+        <v>1.56059148072216</v>
+      </c>
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.6807538073977029</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>1.8101683854987103</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
         <v>1.9495476193103558</v>
       </c>
-      <c r="L51" s="61">
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
         <v>2.0996587667790663</v>
       </c>
@@ -21233,45 +21236,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>1005.8196380000199</v>
-      </c>
-      <c r="D53" s="21">
+        <v>-326.9948232024348</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>966.22376071524604</v>
-      </c>
-      <c r="E53" s="21">
+        <v>-314.1220909519213</v>
+      </c>
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>941.28496967816147</v>
-      </c>
-      <c r="F53" s="21">
+        <v>-306.0144191010626</v>
+      </c>
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>900.2092609312615</v>
-      </c>
-      <c r="G53" s="21">
+        <v>-292.6605894360184</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>860.92601026391276</v>
-      </c>
-      <c r="H53" s="21">
+        <v>-279.8894929874287</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>823.35699855184635</v>
-      </c>
-      <c r="I53" s="21">
+        <v>-267.67570049566035</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>787.42741998989277</v>
-      </c>
-      <c r="J53" s="21">
+        <v>-255.99489238083268</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>753.06573314187574</v>
-      </c>
-      <c r="K53" s="21">
+        <v>-244.82381031869747</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>720.20351849036467</v>
-      </c>
-      <c r="L53" s="21">
+        <v>-234.1402109296676</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>688.77534220266978</v>
+        <v>-223.92282148874872</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21291,7 +21294,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>2.2613281631313535</v>
       </c>
@@ -21350,18 +21353,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>13577.359943415409</v>
+        <v>-4414.038309175287</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>6004.1528535222787</v>
+        <v>-1951.9671585671128</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21369,9 +21372,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>22024.652595380659</v>
+        <v>-7160.27716046776</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21381,9 +21384,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>143.92950593034638</v>
+        <v>-46.79189147558295</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21420,18 +21423,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>12787.127968359453</v>
+        <v>50256.138915057796</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>5654.6980561426617</v>
+        <v>22224.168846624256</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21442,9 +21445,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>14101.990708107911</v>
+        <v>19477.929995331782</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21452,9 +21455,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>92.155485606978644</v>
+        <v>127.28685860688496</v>
       </c>
     </row>
   </sheetData>
@@ -21478,7 +21481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21492,15 +21495,15 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
-        <v>6.7600002288818359</v>
+      <c r="C15" s="78" t="n">
+        <v>6.760000228881836</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21508,15 +21511,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>5</v>
+      <c r="C17" s="78" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21530,9 +21533,9 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
-        <v>80.752943910624666</v>
+        <v>80.75294391062467</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" thickTop="1"/>
@@ -21556,18 +21559,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
-        <v>3.1800000667572021</v>
+      <c r="C2" s="117" t="n">
+        <v>3.180000066757202</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1"/>
@@ -21643,112 +21646,112 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
-        <v>3.1800000667572021</v>
+        <v>3.180000066757202</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1">
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
-        <v>3.2754000666275669</v>
-      </c>
-      <c r="D7" s="90">
+        <v>3.275400066627567</v>
+      </c>
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
         <v>3.3736620664300774</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
         <v>3.4748719261607732</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
         <v>3.5791180816155177</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>3.686491621664008</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>3.7970863678419535</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
         <v>3.9109989563310723</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
-        <v>4.0283289223984822</v>
-      </c>
-      <c r="K7" s="90">
+        <v>4.028328922398482</v>
+      </c>
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
-        <v>4.1491787873692383</v>
-      </c>
-      <c r="L7" s="90">
+        <v>4.149178787369238</v>
+      </c>
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
-        <v>4.2736541482080854</v>
-      </c>
-      <c r="M7" s="159">
+        <v>4.273654148208085</v>
+      </c>
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
-        <v>93.660782968824819</v>
+        <v>93.66078296882482</v>
       </c>
       <c r="N7" s="160"/>
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>2.9999999329447746E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.029999999329447746</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
         <v>3.041231510193624</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
         <v>2.908518523405661</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
         <v>2.7815968539847304</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
-        <v>2.6602137809450719</v>
-      </c>
-      <c r="G8" s="90">
+        <v>2.660213780945072</v>
+      </c>
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
-        <v>2.5441276115165561</v>
-      </c>
-      <c r="H8" s="90">
+        <v>2.544127611516556</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
         <v>2.4331071998963223</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
         <v>2.326931487001326</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
         <v>2.2253890603048267</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
-        <v>2.1282777328809162</v>
-      </c>
-      <c r="L8" s="90">
+        <v>2.128277732880916</v>
+      </c>
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
         <v>2.0354041408185504</v>
       </c>
-      <c r="M8" s="159">
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
         <v>44.607621224330096</v>
       </c>
@@ -21756,9 +21759,9 @@
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>7.6997938384193873E-2</v>
+        <v>0.07699793838419387</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21769,9 +21772,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>69.692419125277695</v>
+        <v>69.6924191252777</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21864,56 +21867,56 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
-        <v>3.1800000667572021</v>
+        <v>3.180000066757202</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1">
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
-        <v>3.2992500739991768</v>
-      </c>
-      <c r="D16" s="90">
+        <v>3.299250073999177</v>
+      </c>
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>3.4229719566904278</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>3.55133341016696</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
         <v>3.6845084183401338</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>3.8226774895182447</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
         <v>3.9660279010714223</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
-        <v>4.1147539532714559</v>
-      </c>
-      <c r="J16" s="90">
+        <v>4.114753953271456</v>
+      </c>
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
-        <v>4.2690572326506171</v>
-      </c>
-      <c r="K16" s="90">
+        <v>4.269057232650617</v>
+      </c>
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
-        <v>4.4291468852364257</v>
-      </c>
-      <c r="L16" s="90">
+        <v>4.429146885236426</v>
+      </c>
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
-        <v>4.5952399000327562</v>
-      </c>
-      <c r="M16" s="159">
+        <v>4.595239900032756</v>
+      </c>
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>120.70406147836759</v>
       </c>
@@ -21921,65 +21924,65 @@
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>3.7500001490116119E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.03750000149011612</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
-        <v>3.0633764062250801</v>
-      </c>
-      <c r="D17" s="90">
+        <v>3.06337640622508</v>
+      </c>
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
-        <v>2.9510298142182259</v>
-      </c>
-      <c r="E17" s="90">
+        <v>2.951029814218226</v>
+      </c>
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
-        <v>2.8428034330708289</v>
-      </c>
-      <c r="F17" s="90">
+        <v>2.842803433070829</v>
+      </c>
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
         <v>2.7385461577317862</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
         <v>2.6381124247927352</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
-        <v>2.5413620092531519</v>
-      </c>
-      <c r="I17" s="90">
+        <v>2.541362009253152</v>
+      </c>
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
         <v>2.4481598287391693</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
         <v>2.3583757549022017</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
         <v>2.271884431734585</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
-        <v>2.1885651005482072</v>
-      </c>
-      <c r="M17" s="159">
+        <v>2.188565100548207</v>
+      </c>
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
-        <v>57.487465767369002</v>
+        <v>57.487465767369</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>7.6997938384193873E-2</v>
+        <v>0.07699793838419387</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21990,9 +21993,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>83.529681128584997</v>
+        <v>83.529681128585</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22079,122 +22082,122 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
-        <v>3.1800000667572021</v>
+        <v>3.180000066757202</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1">
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
         <v>3.3231000754475595</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
         <v>3.4726395847848686</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
         <v>3.628908372309755</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>3.7922092555526956</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
         <v>3.9628586788335727</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>4.141187326467227</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
-        <v>4.3275407635632783</v>
-      </c>
-      <c r="J25" s="90">
+        <v>4.327540763563278</v>
+      </c>
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>4.522280105661876</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
-        <v>4.7257827185031349</v>
-      </c>
-      <c r="L25" s="90">
+        <v>4.725782718503135</v>
+      </c>
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
-        <v>4.9384429492861317</v>
-      </c>
-      <c r="M25" s="159">
+        <v>4.938442949286132</v>
+      </c>
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>161.28142748651379</v>
+        <v>161.2814274865138</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>4.5000001788139343E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.04500000178813934</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
         <v>3.0855212967567756</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
-        <v>2.9938495197731352</v>
-      </c>
-      <c r="E26" s="90">
+        <v>2.993849519773135</v>
+      </c>
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
         <v>2.9049013391892866</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
         <v>2.8185958361271073</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
-        <v>2.7348544958329999</v>
-      </c>
-      <c r="H26" s="90">
+        <v>2.734854495833</v>
+      </c>
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
-        <v>2.6536011362505358</v>
-      </c>
-      <c r="I26" s="90">
+        <v>2.653601136250536</v>
+      </c>
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
         <v>2.5747618387154407</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
-        <v>2.4982648807094101</v>
-      </c>
-      <c r="K26" s="90">
+        <v>2.49826488070941</v>
+      </c>
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
-        <v>2.4240406706120088</v>
-      </c>
-      <c r="L26" s="90">
+        <v>2.424040670612009</v>
+      </c>
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
         <v>2.352021684391044</v>
       </c>
-      <c r="M26" s="159">
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
-        <v>76.813161280451212</v>
+        <v>76.81316128045121</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>7.6997938384193873E-2</v>
+        <v>0.07699793838419387</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22205,7 +22208,7 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
         <v>103.853573978809</v>
       </c>
@@ -22250,12 +22253,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22298,37 +22301,37 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
+      <c r="C3" s="120" t="n">
         <v>10022.400390625</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="110" t="n">
         <v>10889.5</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="110" t="n">
         <v>11338.599609375</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="110" t="n">
         <v>11171.7998046875</v>
       </c>
-      <c r="G3" s="110">
+      <c r="G3" s="110" t="n">
         <v>11593.5</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="110" t="n">
         <v>12966.599609375</v>
       </c>
-      <c r="I3" s="110">
+      <c r="I3" s="110" t="n">
         <v>13982.400390625</v>
       </c>
-      <c r="J3" s="110">
+      <c r="J3" s="110" t="n">
         <v>12912.900390625</v>
       </c>
-      <c r="K3" s="110">
-        <v>12750</v>
-      </c>
-      <c r="L3" s="110">
+      <c r="K3" s="110" t="n">
+        <v>12750.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
         <v>15281.2998046875</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="110" t="n">
         <v>16947.400390625</v>
       </c>
       <c r="Q3" s="107"/>
@@ -22338,43 +22341,43 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
-        <v>8.6516161356523832E-2</v>
-      </c>
-      <c r="E4" s="121">
+        <v>0.08651616135652383</v>
+      </c>
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>4.1241527101795308E-2</v>
-      </c>
-      <c r="F4" s="121">
+        <v>0.04124152710179531</v>
+      </c>
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-1.4710794139832428E-2</v>
-      </c>
-      <c r="G4" s="121">
+        <v>-0.014710794139832428</v>
+      </c>
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>3.7746844974393623E-2</v>
-      </c>
-      <c r="H4" s="121">
+        <v>0.03774684497439362</v>
+      </c>
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>0.11843702155302541</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.1184370215530254</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>7.8339797005497452E-2</v>
-      </c>
-      <c r="J4" s="121">
+        <v>0.07833979700549745</v>
+      </c>
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-7.6489012624547964E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>-0.07648901262454796</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-1.2615321554193095E-2</v>
-      </c>
-      <c r="L4" s="121">
+        <v>-0.012615321554193095</v>
+      </c>
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>0.19853331801470589</v>
-      </c>
-      <c r="M4" s="121">
+        <v>0.1985333180147059</v>
+      </c>
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.10902872185168619</v>
       </c>
@@ -22399,38 +22402,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>883.79998779296875</v>
-      </c>
-      <c r="D6" s="110">
+      <c r="C6" s="110" t="n">
+        <v>883.7999877929688</v>
+      </c>
+      <c r="D6" s="110" t="n">
         <v>490.29998779296875</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="110" t="n">
         <v>760.9000244140625</v>
       </c>
-      <c r="F6" s="110">
-        <v>903.79998779296875</v>
-      </c>
-      <c r="G6" s="110">
-        <v>968</v>
-      </c>
-      <c r="H6" s="110">
+      <c r="F6" s="110" t="n">
+        <v>903.7999877929688</v>
+      </c>
+      <c r="G6" s="110" t="n">
+        <v>968.0</v>
+      </c>
+      <c r="H6" s="110" t="n">
         <v>1227.300048828125</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="110" t="n">
         <v>603.4000244140625</v>
       </c>
-      <c r="J6" s="110">
+      <c r="J6" s="110" t="n">
         <v>952.4000244140625</v>
       </c>
-      <c r="K6" s="110">
+      <c r="K6" s="110" t="n">
         <v>1129.800048828125</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="110" t="n">
         <v>1538.300048828125</v>
       </c>
-      <c r="M6" s="110">
-        <v>164.30000305175781</v>
+      <c r="M6" s="110" t="n">
+        <v>164.3000030517578</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22439,45 +22442,45 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>-0.4452364849909658</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
-        <v>0.55190708414897183</v>
-      </c>
-      <c r="F7" s="121">
+        <v>0.5519070841489718</v>
+      </c>
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
         <v>0.18780386226028475</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
-        <v>7.1033428937971418E-2</v>
-      </c>
-      <c r="H7" s="121">
+        <v>0.07103342893797142</v>
+      </c>
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>0.26787195126872415</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
-        <v>-0.50835166592699566</v>
-      </c>
-      <c r="J7" s="121">
+        <v>-0.5083516659269957</v>
+      </c>
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>0.57838910487101747</v>
-      </c>
-      <c r="K7" s="121">
+        <v>0.5783891048710175</v>
+      </c>
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>0.18626629553396254</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
-        <v>0.36156840356283498</v>
-      </c>
-      <c r="M7" s="121">
+        <v>0.361568403562835</v>
+      </c>
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
-        <v>-0.89319378675381111</v>
+        <v>-0.8931937867538111</v>
       </c>
       <c r="Q7" s="107"/>
     </row>
@@ -22498,38 +22501,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="110" t="n">
         <v>1157.801025390625</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="110" t="n">
         <v>1196.801025390625</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="110" t="n">
         <v>1698.198974609375</v>
       </c>
-      <c r="F9" s="110">
-        <v>1730</v>
-      </c>
-      <c r="G9" s="110">
+      <c r="F9" s="110" t="n">
+        <v>1730.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
         <v>1808.6009521484375</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="110" t="n">
         <v>2214.199951171875</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="110" t="n">
         <v>1737.801025390625</v>
       </c>
-      <c r="J9" s="110">
+      <c r="J9" s="110" t="n">
         <v>1902.800048828125</v>
       </c>
-      <c r="K9" s="110">
+      <c r="K9" s="110" t="n">
         <v>2013.9000244140625</v>
       </c>
-      <c r="L9" s="110">
+      <c r="L9" s="110" t="n">
         <v>2271.60107421875</v>
       </c>
-      <c r="M9" s="110">
-        <v>893.90118408203125</v>
+      <c r="M9" s="110" t="n">
+        <v>893.9011840820312</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22538,43 +22541,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>3.368454436015187E-2</v>
-      </c>
-      <c r="E10" s="121">
+        <v>0.03368454436015187</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>0.41894846226012894</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
-        <v>1.8726324692275753E-2</v>
-      </c>
-      <c r="G10" s="121">
+        <v>0.018726324692275753</v>
+      </c>
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>4.5434076386380057E-2</v>
-      </c>
-      <c r="H10" s="121">
+        <v>0.04543407638638006</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
         <v>0.22426118848473806</v>
       </c>
-      <c r="I10" s="121">
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>-0.21515623533868869</v>
-      </c>
-      <c r="J10" s="121">
+        <v>-0.2151562353386887</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
-        <v>9.4947016963815439E-2</v>
-      </c>
-      <c r="K10" s="121">
+        <v>0.09494701696381544</v>
+      </c>
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
-        <v>5.8387624939551956E-2</v>
-      </c>
-      <c r="L10" s="121">
+        <v>0.058387624939551956</v>
+      </c>
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
-        <v>0.12796119304862991</v>
-      </c>
-      <c r="M10" s="121">
+        <v>0.1279611930486299</v>
+      </c>
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>-0.6064884832872951</v>
       </c>
@@ -22589,37 +22592,37 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>166.70100402832031</v>
-      </c>
-      <c r="D12" s="110">
+      <c r="C12" s="110" t="n">
+        <v>166.7010040283203</v>
+      </c>
+      <c r="D12" s="110" t="n">
         <v>158.7760009765625</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="110" t="n">
         <v>159.73699951171875</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="110" t="n">
         <v>152.70599365234375</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="110" t="n">
         <v>148.20700073242188</v>
       </c>
-      <c r="H12" s="110">
-        <v>152.44900512695313</v>
-      </c>
-      <c r="I12" s="110">
+      <c r="H12" s="110" t="n">
+        <v>152.44900512695312</v>
+      </c>
+      <c r="I12" s="110" t="n">
         <v>156.77999877929688</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="110" t="n">
         <v>156.38099670410156</v>
       </c>
-      <c r="K12" s="110">
+      <c r="K12" s="110" t="n">
         <v>162.427001953125</v>
       </c>
-      <c r="L12" s="110">
-        <v>165.02400207519531</v>
-      </c>
-      <c r="M12" s="110">
+      <c r="L12" s="110" t="n">
+        <v>165.0240020751953</v>
+      </c>
+      <c r="M12" s="110" t="n">
         <v>156.55299377441406</v>
       </c>
       <c r="Q12" s="107"/>
@@ -22629,45 +22632,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>-4.7540223875385125E-2</v>
-      </c>
-      <c r="E13" s="121">
+        <v>-0.047540223875385125</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>6.0525427598979737E-3</v>
-      </c>
-      <c r="F13" s="121">
+        <v>0.006052542759897974</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>-4.4016138282722501E-2</v>
-      </c>
-      <c r="G13" s="121">
+        <v>-0.0440161382827225</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-2.9461796569455224E-2</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-0.029461796569455224</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>2.8622159368773072E-2</v>
-      </c>
-      <c r="I13" s="121">
+        <v>0.028622159368773072</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>2.8409458288934611E-2</v>
-      </c>
-      <c r="J13" s="121">
+        <v>0.02840945828893461</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>-2.5449807265083466E-3</v>
-      </c>
-      <c r="K13" s="121">
+        <v>-0.0025449807265083466</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
-        <v>3.8662020171565052E-2</v>
-      </c>
-      <c r="L13" s="121">
+        <v>0.03866202017156505</v>
+      </c>
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>1.5988721646292416E-2</v>
-      </c>
-      <c r="M13" s="121">
+        <v>0.015988721646292416</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>-5.1331977132158882E-2</v>
+        <v>-0.05133197713215888</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22680,38 +22683,38 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
-        <v>5.3000001907348633</v>
-      </c>
-      <c r="D15" s="110">
+      <c r="C15" s="110" t="n">
+        <v>5.300000190734863</v>
+      </c>
+      <c r="D15" s="110" t="n">
         <v>3.0899999141693115</v>
       </c>
-      <c r="E15" s="110">
-        <v>4.7600002288818359</v>
-      </c>
-      <c r="F15" s="110">
-        <v>5.7899999618530273</v>
-      </c>
-      <c r="G15" s="110">
-        <v>6.5300002098083496</v>
-      </c>
-      <c r="H15" s="110">
-        <v>8.0500001907348633</v>
-      </c>
-      <c r="I15" s="110">
+      <c r="E15" s="110" t="n">
+        <v>4.760000228881836</v>
+      </c>
+      <c r="F15" s="110" t="n">
+        <v>5.789999961853027</v>
+      </c>
+      <c r="G15" s="110" t="n">
+        <v>6.53000020980835</v>
+      </c>
+      <c r="H15" s="110" t="n">
+        <v>8.050000190734863</v>
+      </c>
+      <c r="I15" s="110" t="n">
         <v>3.8499999046325684</v>
       </c>
-      <c r="J15" s="110">
-        <v>6.1100001335144043</v>
-      </c>
-      <c r="K15" s="110">
-        <v>7.4600000381469727</v>
-      </c>
-      <c r="L15" s="110">
-        <v>10.159999847412109</v>
-      </c>
-      <c r="M15" s="110">
-        <v>6.7600002288818359</v>
+      <c r="J15" s="110" t="n">
+        <v>6.110000133514404</v>
+      </c>
+      <c r="K15" s="110" t="n">
+        <v>7.460000038146973</v>
+      </c>
+      <c r="L15" s="110" t="n">
+        <v>10.15999984741211</v>
+      </c>
+      <c r="M15" s="110" t="n">
+        <v>6.760000228881836</v>
       </c>
       <c r="Q15" s="107"/>
     </row>
@@ -22719,43 +22722,43 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
-        <v>-0.41698116925145379</v>
-      </c>
-      <c r="E16" s="121">
+        <v>-0.4169811692514538</v>
+      </c>
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
-        <v>0.54045319129449521</v>
-      </c>
-      <c r="F16" s="121">
+        <v>0.5404531912944952</v>
+      </c>
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>0.21638648811854044</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
         <v>0.12780660670652103</v>
       </c>
-      <c r="H16" s="121">
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
         <v>0.23277181195850538</v>
       </c>
-      <c r="I16" s="121">
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>-0.52173915361347145</v>
-      </c>
-      <c r="J16" s="121">
+        <v>-0.5217391536134715</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
-        <v>0.58701306100357586</v>
-      </c>
-      <c r="K16" s="121">
+        <v>0.5870130610035759</v>
+      </c>
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
         <v>0.22094924306590252</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
-        <v>0.36193026748774759</v>
-      </c>
-      <c r="M16" s="121">
+        <v>0.3619302674877476</v>
+      </c>
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
         <v>-0.33464563677097886</v>
       </c>
@@ -22805,37 +22808,37 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="110" t="n">
         <v>602.9000244140625</v>
       </c>
-      <c r="D20" s="128">
-        <v>531.70001220703125</v>
-      </c>
-      <c r="E20" s="128">
+      <c r="D20" s="128" t="n">
+        <v>531.7000122070312</v>
+      </c>
+      <c r="E20" s="128" t="n">
         <v>1020.2999877929688</v>
       </c>
-      <c r="F20" s="128">
-        <v>900</v>
-      </c>
-      <c r="G20" s="128">
+      <c r="F20" s="128" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="G20" s="128" t="n">
         <v>849.0999755859375</v>
       </c>
-      <c r="H20" s="128">
+      <c r="H20" s="128" t="n">
         <v>276.29998779296875</v>
       </c>
-      <c r="I20" s="128">
-        <v>814</v>
-      </c>
-      <c r="J20" s="128">
+      <c r="I20" s="128" t="n">
+        <v>814.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
         <v>1181.0999755859375</v>
       </c>
-      <c r="K20" s="128">
+      <c r="K20" s="128" t="n">
         <v>1693.9000244140625</v>
       </c>
-      <c r="L20" s="128">
+      <c r="L20" s="128" t="n">
         <v>152.39999389648438</v>
       </c>
-      <c r="M20" s="128">
+      <c r="M20" s="128" t="n">
         <v>-1948.199951171875</v>
       </c>
       <c r="O20" s="107"/>
@@ -22865,40 +22868,41 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>0.91893918444314249</v>
-      </c>
-      <c r="F21" s="131">
+        <v>0.9189391844431425</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
         <v>-0.11790648753529064</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>-5.6555582682291668E-2</v>
-      </c>
-      <c r="H21" s="131">
+        <v>-0.05655558268229167</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
-        <v>-0.67459663674786607</v>
-      </c>
-      <c r="I21" s="131">
+        <v>-0.6745966367478661</v>
+      </c>
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
         <v>1.9460732390981084</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>0.45098277099009582</v>
-      </c>
-      <c r="K21" s="131">
+        <v>0.4509827709900958</v>
+      </c>
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
         <v>0.43417158532555766</v>
       </c>
-      <c r="L21" s="131">
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
         <v>-0.9100301129346775</v>
       </c>
-      <c r="M21" s="131">
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
         <v>-13.78346475850366</v>
       </c>
@@ -22963,37 +22967,37 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>304</v>
-      </c>
-      <c r="D23" s="130">
+      <c r="C23" s="113" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="D23" s="130" t="n">
         <v>312.70001220703125</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="130" t="n">
         <v>321.29998779296875</v>
       </c>
-      <c r="F23" s="130">
-        <v>319.89999389648438</v>
-      </c>
-      <c r="G23" s="130">
-        <v>330.89999389648438</v>
-      </c>
-      <c r="H23" s="130">
-        <v>362.89999389648438</v>
-      </c>
-      <c r="I23" s="130">
-        <v>384.89999389648438</v>
-      </c>
-      <c r="J23" s="130">
-        <v>402</v>
-      </c>
-      <c r="K23" s="130">
+      <c r="F23" s="130" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="G23" s="130" t="n">
+        <v>330.8999938964844</v>
+      </c>
+      <c r="H23" s="130" t="n">
+        <v>362.8999938964844</v>
+      </c>
+      <c r="I23" s="130" t="n">
+        <v>384.8999938964844</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
         <v>431.79998779296875</v>
       </c>
-      <c r="L23" s="130">
+      <c r="L23" s="130" t="n">
         <v>474.79998779296875</v>
       </c>
-      <c r="M23" s="130">
+      <c r="M23" s="130" t="n">
         <v>465.79998779296875</v>
       </c>
       <c r="O23" s="107"/>
@@ -23020,45 +23024,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
-        <v>2.861846120733964E-2</v>
-      </c>
-      <c r="E24" s="121">
+        <v>0.02861846120733964</v>
+      </c>
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>2.7502319316328225E-2</v>
-      </c>
-      <c r="F24" s="121">
+        <v>0.027502319316328225</v>
+      </c>
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
-        <v>-4.3572796441762457E-3</v>
-      </c>
-      <c r="G24" s="121">
+        <v>-0.004357279644176246</v>
+      </c>
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
-        <v>3.4385746201544082E-2</v>
-      </c>
-      <c r="H24" s="121">
+        <v>0.03438574620154408</v>
+      </c>
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
-        <v>9.6705955244020383E-2</v>
-      </c>
-      <c r="I24" s="121">
+        <v>0.09670595524402038</v>
+      </c>
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>6.0622762110807381E-2</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.06062276211080738</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
-        <v>4.44271404901984E-2</v>
-      </c>
-      <c r="K24" s="121">
+        <v>0.0444271404901984</v>
+      </c>
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>7.412932286808159E-2</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.07412932286808159</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>9.9583143157977103E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.0995831431579771</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>-1.8955350108231985E-2</v>
+        <v>-0.018955350108231985</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23195,37 +23199,37 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="110" t="n">
         <v>4111.2998046875</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="110" t="n">
         <v>4016.60009765625</v>
       </c>
-      <c r="E28" s="110">
+      <c r="E28" s="110" t="n">
         <v>3948.800048828125</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="110" t="n">
         <v>3662.10009765625</v>
       </c>
-      <c r="G28" s="110">
+      <c r="G28" s="110" t="n">
         <v>4788.5</v>
       </c>
-      <c r="H28" s="110">
-        <v>4559</v>
-      </c>
-      <c r="I28" s="110">
+      <c r="H28" s="110" t="n">
+        <v>4559.0</v>
+      </c>
+      <c r="I28" s="110" t="n">
         <v>4569.39990234375</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="110" t="n">
         <v>4456.60009765625</v>
       </c>
-      <c r="K28" s="110">
-        <v>6036</v>
-      </c>
-      <c r="L28" s="110">
+      <c r="K28" s="110" t="n">
+        <v>6036.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
         <v>8526.400390625</v>
       </c>
-      <c r="M28" s="110">
+      <c r="M28" s="110" t="n">
         <v>7974.7001953125</v>
       </c>
       <c r="O28" s="107"/>
@@ -23256,45 +23260,45 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
-        <v>-2.303400664755173E-2</v>
-      </c>
-      <c r="E29" s="121">
+        <v>-0.02303400664755173</v>
+      </c>
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>-1.6879959961084351E-2</v>
-      </c>
-      <c r="F29" s="121">
+        <v>-0.01687995996108435</v>
+      </c>
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
-        <v>-7.2604322231245369E-2</v>
-      </c>
-      <c r="G29" s="121">
+        <v>-0.07260432223124537</v>
+      </c>
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
         <v>0.30758304587704954</v>
       </c>
-      <c r="H29" s="121">
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
-        <v>-4.7927325884932648E-2</v>
-      </c>
-      <c r="I29" s="121">
+        <v>-0.04792732588493265</v>
+      </c>
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
-        <v>2.2811805974446149E-3</v>
-      </c>
-      <c r="J29" s="121">
+        <v>0.002281180597444615</v>
+      </c>
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>-2.4685912176266821E-2</v>
-      </c>
-      <c r="K29" s="121">
+        <v>-0.02468591217626682</v>
+      </c>
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
         <v>0.35439569800628173</v>
       </c>
-      <c r="L29" s="121">
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>0.41259118466285621</v>
-      </c>
-      <c r="M29" s="121">
+        <v>0.4125911846628562</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
-        <v>-6.4704936437081792E-2</v>
+        <v>-0.06470493643708179</v>
       </c>
       <c r="O29" s="107"/>
       <c r="P29" s="107"/>
@@ -23347,37 +23351,37 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
+      <c r="C31" s="110" t="n">
         <v>11732.7001953125</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="110" t="n">
         <v>12518.5</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="110" t="n">
         <v>11900.2998046875</v>
       </c>
-      <c r="F31" s="110">
+      <c r="F31" s="110" t="n">
         <v>11465.7001953125</v>
       </c>
-      <c r="G31" s="110">
+      <c r="G31" s="110" t="n">
         <v>10846.400390625</v>
       </c>
-      <c r="H31" s="110">
+      <c r="H31" s="110" t="n">
         <v>14538.7001953125</v>
       </c>
-      <c r="I31" s="110">
+      <c r="I31" s="110" t="n">
         <v>14838.599609375</v>
       </c>
-      <c r="J31" s="110">
-        <v>16140</v>
-      </c>
-      <c r="K31" s="110">
+      <c r="J31" s="110" t="n">
+        <v>16140.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
         <v>17530.30078125</v>
       </c>
-      <c r="L31" s="110">
+      <c r="L31" s="110" t="n">
         <v>19653.599609375</v>
       </c>
-      <c r="M31" s="110">
+      <c r="M31" s="110" t="n">
         <v>16988.599609375</v>
       </c>
       <c r="O31" s="107"/>
@@ -23408,43 +23412,43 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>6.6975188286277548E-2</v>
-      </c>
-      <c r="E32" s="121">
+        <v>0.06697518828627755</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>-4.9382928890242442E-2</v>
-      </c>
-      <c r="F32" s="121">
+        <v>-0.04938292889024244</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>-3.652005550345986E-2</v>
-      </c>
-      <c r="G32" s="121">
+        <v>-0.03652005550345986</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>-5.4013256420282742E-2</v>
-      </c>
-      <c r="H32" s="121">
+        <v>-0.05401325642028274</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>0.34041706664995608</v>
-      </c>
-      <c r="I32" s="121">
+        <v>0.3404170666499561</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>2.0627663411010577E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.020627663411010577</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>8.7703720356655329E-2</v>
-      </c>
-      <c r="K32" s="121">
+        <v>0.08770372035665533</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>8.6140073187732341E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.08614007318773234</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
         <v>0.12112164272709061</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
         <v>-0.1355985698787088</v>
       </c>
@@ -23500,43 +23504,43 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
         <v>16535.10009765625</v>
       </c>
-      <c r="E34" s="111">
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
         <v>15849.099853515625</v>
       </c>
-      <c r="F34" s="111">
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>15127.80029296875</v>
       </c>
-      <c r="G34" s="111">
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>15634.900390625</v>
       </c>
-      <c r="H34" s="111">
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>19097.7001953125</v>
       </c>
-      <c r="I34" s="111">
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>19407.99951171875</v>
       </c>
-      <c r="J34" s="111">
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>20596.60009765625</v>
       </c>
-      <c r="K34" s="111">
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>23566.30078125</v>
       </c>
-      <c r="L34" s="111">
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>28180</v>
-      </c>
-      <c r="M34" s="111">
+        <v>28180.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>24963.2998046875</v>
       </c>
@@ -23591,37 +23595,37 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="113" t="n">
         <v>3074.699951171875</v>
       </c>
-      <c r="D36" s="118">
-        <v>3236</v>
-      </c>
-      <c r="E36" s="110">
-        <v>2832</v>
-      </c>
-      <c r="F36" s="110">
+      <c r="D36" s="118" t="n">
+        <v>3236.0</v>
+      </c>
+      <c r="E36" s="110" t="n">
+        <v>2832.0</v>
+      </c>
+      <c r="F36" s="110" t="n">
         <v>2802.60009765625</v>
       </c>
-      <c r="G36" s="110">
+      <c r="G36" s="110" t="n">
         <v>2807.5</v>
       </c>
-      <c r="H36" s="110">
+      <c r="H36" s="110" t="n">
         <v>4391.5</v>
       </c>
-      <c r="I36" s="110">
+      <c r="I36" s="110" t="n">
         <v>4001.60009765625</v>
       </c>
-      <c r="J36" s="110">
+      <c r="J36" s="110" t="n">
         <v>4405.7001953125</v>
       </c>
-      <c r="K36" s="110">
+      <c r="K36" s="110" t="n">
         <v>4558.2998046875</v>
       </c>
-      <c r="L36" s="110">
+      <c r="L36" s="110" t="n">
         <v>8767.400390625</v>
       </c>
-      <c r="M36" s="110">
+      <c r="M36" s="110" t="n">
         <v>6569.2001953125</v>
       </c>
       <c r="O36" s="107"/>
@@ -23652,45 +23656,45 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>5.2460419354626031E-2</v>
-      </c>
-      <c r="E37" s="121">
+        <v>0.05246041935462603</v>
+      </c>
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
         <v>-0.12484548825710753</v>
       </c>
-      <c r="F37" s="121">
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
-        <v>-1.0381321449064266E-2</v>
-      </c>
-      <c r="G37" s="121">
+        <v>-0.010381321449064266</v>
+      </c>
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
-        <v>1.7483416017317903E-3</v>
-      </c>
-      <c r="H37" s="121">
+        <v>0.0017483416017317903</v>
+      </c>
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
-        <v>0.56420302760463048</v>
-      </c>
-      <c r="I37" s="121">
+        <v>0.5642030276046305</v>
+      </c>
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>-8.8785130899180234E-2</v>
-      </c>
-      <c r="J37" s="121">
+        <v>-0.08878513089918023</v>
+      </c>
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
         <v>0.10098462809737853</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
-        <v>3.463685739155839E-2</v>
-      </c>
-      <c r="L37" s="121">
+        <v>0.03463685739155839</v>
+      </c>
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
-        <v>0.92339266092350858</v>
-      </c>
-      <c r="M37" s="121">
+        <v>0.9233926609235086</v>
+      </c>
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
-        <v>-0.25072428512139588</v>
+        <v>-0.2507242851213959</v>
       </c>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
@@ -23743,37 +23747,37 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
+      <c r="C39" s="113" t="n">
         <v>6042.2001953125</v>
       </c>
-      <c r="D39" s="110">
+      <c r="D39" s="110" t="n">
         <v>6418.60009765625</v>
       </c>
-      <c r="E39" s="110">
+      <c r="E39" s="110" t="n">
         <v>6505.2001953125</v>
       </c>
-      <c r="F39" s="110">
-        <v>6466</v>
-      </c>
-      <c r="G39" s="110">
+      <c r="F39" s="110" t="n">
+        <v>6466.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
         <v>6453.7998046875</v>
       </c>
-      <c r="H39" s="110">
+      <c r="H39" s="110" t="n">
         <v>6401.2001953125</v>
       </c>
-      <c r="I39" s="110">
+      <c r="I39" s="110" t="n">
         <v>7566.5</v>
       </c>
-      <c r="J39" s="110">
+      <c r="J39" s="110" t="n">
         <v>7048.7001953125</v>
       </c>
-      <c r="K39" s="110">
+      <c r="K39" s="110" t="n">
         <v>7941.60009765625</v>
       </c>
-      <c r="L39" s="110">
+      <c r="L39" s="110" t="n">
         <v>7820.2001953125</v>
       </c>
-      <c r="M39" s="110">
+      <c r="M39" s="110" t="n">
         <v>8679.900390625</v>
       </c>
       <c r="O39" s="107"/>
@@ -23804,43 +23808,43 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>6.2295172317487699E-2</v>
-      </c>
-      <c r="E40" s="121">
+        <v>0.0622951723174877</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
-        <v>1.3492053771642823E-2</v>
-      </c>
-      <c r="F40" s="121">
+        <v>0.013492053771642823</v>
+      </c>
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
-        <v>-6.0259783151249942E-3</v>
-      </c>
-      <c r="G40" s="121">
+        <v>-0.006025978315124994</v>
+      </c>
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
-        <v>-1.8868226589081349E-3</v>
-      </c>
-      <c r="H40" s="121">
+        <v>-0.0018868226589081349</v>
+      </c>
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>-8.1501767899270824E-3</v>
-      </c>
-      <c r="I40" s="121">
+        <v>-0.008150176789927082</v>
+      </c>
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
         <v>0.18204395568519027</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
-        <v>-6.8433199588647325E-2</v>
-      </c>
-      <c r="K40" s="121">
+        <v>-0.06843319958864733</v>
+      </c>
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
         <v>0.12667582357064114</v>
       </c>
-      <c r="L40" s="121">
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
-        <v>-1.5286579637720354E-2</v>
-      </c>
-      <c r="M40" s="121">
+        <v>-0.015286579637720354</v>
+      </c>
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
         <v>0.1099332720187665</v>
       </c>
@@ -23898,43 +23902,43 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
         <v>9654.60009765625</v>
       </c>
-      <c r="E42" s="111">
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
         <v>9337.2001953125</v>
       </c>
-      <c r="F42" s="111">
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>9268.60009765625</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>9261.2998046875</v>
       </c>
-      <c r="H42" s="111">
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>10792.7001953125</v>
       </c>
-      <c r="I42" s="111">
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>11568.10009765625</v>
       </c>
-      <c r="J42" s="111">
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>11454.400390625</v>
       </c>
-      <c r="K42" s="111">
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>12499.89990234375</v>
       </c>
-      <c r="L42" s="111">
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>16587.6005859375</v>
       </c>
-      <c r="M42" s="111">
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>15249.1005859375</v>
       </c>
@@ -23994,43 +23998,43 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
         <v>6880.5</v>
       </c>
-      <c r="E44" s="134">
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
         <v>6511.899658203125</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>5859.2001953125</v>
       </c>
-      <c r="G44" s="134">
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>6373.6005859375</v>
       </c>
-      <c r="H44" s="134">
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>8305</v>
-      </c>
-      <c r="I44" s="134">
+        <v>8305.0</v>
+      </c>
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>7839.8994140625</v>
       </c>
-      <c r="J44" s="134">
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>9142.19970703125</v>
       </c>
-      <c r="K44" s="134">
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>11066.40087890625</v>
       </c>
-      <c r="L44" s="134">
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>11592.3994140625</v>
       </c>
-      <c r="M44" s="134">
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>9714.19921875</v>
       </c>
@@ -24094,39 +24098,39 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="133">
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
         <v>3526.5</v>
       </c>
-      <c r="D46" s="133">
+      <c r="D46" s="133" t="n">
         <v>3799.39990234375</v>
       </c>
-      <c r="E46" s="133">
+      <c r="E46" s="133" t="n">
         <v>3839.800048828125</v>
       </c>
-      <c r="F46" s="133">
+      <c r="F46" s="133" t="n">
         <v>3792.10009765625</v>
       </c>
-      <c r="G46" s="133">
+      <c r="G46" s="133" t="n">
         <v>3815.300048828125</v>
       </c>
-      <c r="H46" s="133">
+      <c r="H46" s="133" t="n">
         <v>2828.199951171875</v>
       </c>
-      <c r="I46" s="133">
+      <c r="I46" s="133" t="n">
         <v>3819.800048828125</v>
       </c>
-      <c r="J46" s="133">
+      <c r="J46" s="133" t="n">
         <v>3176.39990234375</v>
       </c>
-      <c r="K46" s="136">
+      <c r="K46" s="136" t="n">
         <v>4245.39990234375</v>
       </c>
-      <c r="L46" s="133">
+      <c r="L46" s="133" t="n">
         <v>4353.60009765625</v>
       </c>
-      <c r="M46" s="133">
+      <c r="M46" s="133" t="n">
         <v>5352.89990234375</v>
       </c>
       <c r="Q46" s="107"/>
@@ -24261,45 +24265,45 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
-        <v>4.5025022984799025E-2</v>
-      </c>
-      <c r="E50" s="126">
+        <v>0.045025022984799025</v>
+      </c>
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>6.7107054718197681E-2</v>
-      </c>
-      <c r="F50" s="126">
+        <v>0.06710705471819768</v>
+      </c>
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>8.0900123846987457E-2</v>
-      </c>
-      <c r="G50" s="126">
+        <v>0.08090012384698746</v>
+      </c>
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>8.349506188812697E-2</v>
-      </c>
-      <c r="H50" s="126">
+        <v>0.08349506188812697</v>
+      </c>
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>9.4650878858076104E-2</v>
-      </c>
-      <c r="I50" s="126">
+        <v>0.0946508788580761</v>
+      </c>
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.3154251598933907E-2</v>
-      </c>
-      <c r="J50" s="126">
+        <v>0.04315425159893391</v>
+      </c>
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>7.3755701322184966E-2</v>
-      </c>
-      <c r="K50" s="126">
+        <v>0.07375570132218497</v>
+      </c>
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>8.8611768535539606E-2</v>
-      </c>
-      <c r="L50" s="126">
+        <v>0.0886117685355396</v>
+      </c>
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.10066552377673137</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>9.6947023888481355E-3</v>
+        <v>0.009694702388848135</v>
       </c>
       <c r="O50" s="107"/>
       <c r="P50" s="107"/>
@@ -24329,45 +24333,45 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
         <v>0.10990413016122227</v>
       </c>
-      <c r="E51" s="126">
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.14977149146401397</v>
       </c>
-      <c r="F51" s="126">
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.15485418914095839</v>
-      </c>
-      <c r="G51" s="126">
+        <v>0.1548541891409584</v>
+      </c>
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.15600128970099109</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.17076180478118475</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.12428488505849115</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.14735651877324146</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.15795294309129881</v>
       </c>
-      <c r="L51" s="126">
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.1486523465446272</v>
       </c>
-      <c r="M51" s="126">
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>5.2745622542588966E-2</v>
+        <v>0.052745622542588966</v>
       </c>
       <c r="O51" s="107"/>
       <c r="P51" s="107"/>
@@ -24397,43 +24401,43 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
-        <v>4.8826852675240458E-2</v>
-      </c>
-      <c r="E52" s="126">
+        <v>0.04882685267524046</v>
+      </c>
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>8.9984656213573669E-2</v>
-      </c>
-      <c r="F52" s="126">
+        <v>0.08998465621357367</v>
+      </c>
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>8.0559982790093951E-2</v>
-      </c>
-      <c r="G52" s="126">
+        <v>0.08055998279009395</v>
+      </c>
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>7.3239313027639447E-2</v>
-      </c>
-      <c r="H52" s="126">
+        <v>0.07323931302763945</v>
+      </c>
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>2.1308592546746098E-2</v>
-      </c>
-      <c r="I52" s="126">
+        <v>0.021308592546746098</v>
+      </c>
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>5.8216041399141695E-2</v>
-      </c>
-      <c r="J52" s="126">
+        <v>0.058216041399141695</v>
+      </c>
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>9.1466668204413626E-2</v>
-      </c>
-      <c r="K52" s="126">
+        <v>0.09146666820441363</v>
+      </c>
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.13285490387561255</v>
       </c>
-      <c r="L52" s="126">
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>9.9729732316184046E-3</v>
-      </c>
-      <c r="M52" s="126">
+        <v>0.009972973231618405</v>
+      </c>
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>-0.11495568088717545</v>
       </c>
@@ -24547,43 +24551,43 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
-        <v>0.58811360734984008</v>
-      </c>
-      <c r="E55" s="126">
+        <v>0.5881136073498401</v>
+      </c>
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
         <v>0.31490737198574215</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.35544443766276002</v>
-      </c>
-      <c r="G55" s="126">
+        <v>0.35544443766276</v>
+      </c>
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.38970675233872193</v>
       </c>
-      <c r="H55" s="126">
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>1.3134274698861159</v>
-      </c>
-      <c r="I55" s="126">
+        <v>1.313427469886116</v>
+      </c>
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.47285011535194593</v>
       </c>
-      <c r="J55" s="126">
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.34036068775682521</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.3403606877568252</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.25491468302111497</v>
-      </c>
-      <c r="L55" s="126">
+        <v>0.254914683021115</v>
+      </c>
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>3.115485608978906</v>
       </c>
-      <c r="M55" s="126">
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>-0.23909249536362082</v>
       </c>
@@ -24697,43 +24701,43 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
         <v>1.4031829224120704</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
         <v>1.4338673329448957</v>
       </c>
-      <c r="F58" s="112">
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.5818882763335773</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.4530718829669564</v>
       </c>
-      <c r="H58" s="112">
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.2995424678281156</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.4755419026048335</v>
       </c>
-      <c r="J58" s="112">
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.2529151361477524</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.1295361553519985</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.430903128287266</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.5697743316303654</v>
       </c>
@@ -24765,43 +24769,43 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
-        <v>1.2412237631817831</v>
-      </c>
-      <c r="E59" s="112">
+        <v>1.241223763181783</v>
+      </c>
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
-        <v>1.3943502997274471</v>
-      </c>
-      <c r="F59" s="112">
+        <v>1.394350299727447</v>
+      </c>
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.3066795011956147</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.7056099732858414</v>
       </c>
-      <c r="H59" s="112">
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.0381418649664125</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.1418931904315133</v>
       </c>
-      <c r="J59" s="112">
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.0115531924750363</v>
       </c>
-      <c r="K59" s="112">
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.3241779300678986</v>
       </c>
-      <c r="L59" s="112">
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.97251180632086776</v>
-      </c>
-      <c r="M59" s="112">
+        <v>0.9725118063208678</v>
+      </c>
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.2139529863929104</v>
       </c>
@@ -24830,47 +24834,47 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>3.1746295513940126</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
-        <v>2.2611013822519599</v>
-      </c>
-      <c r="F60" s="112">
+        <v>2.26110138225196</v>
+      </c>
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.1919653743677747</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.1095311513000858</v>
-      </c>
-      <c r="H60" s="112">
+        <v>2.109531151300086</v>
+      </c>
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.2773010629302184</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.1980652520155464</v>
       </c>
-      <c r="J60" s="112">
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.6693293151321849</v>
       </c>
-      <c r="K60" s="112">
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.1080489849931552</v>
-      </c>
-      <c r="L60" s="112">
+        <v>2.108048984993155</v>
+      </c>
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>1.9165337378410696</v>
       </c>
-      <c r="M60" s="112">
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>5.9882456782298306</v>
+        <v>5.988245678229831</v>
       </c>
       <c r="O60" s="107"/>
       <c r="P60" s="107"/>
@@ -24953,7 +24957,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
         <v>-2.190698549703554</v>
       </c>
@@ -24985,7 +24989,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
         <v>-2.138666872449114</v>
       </c>
@@ -24995,7 +24999,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
         <v>-0.22908508232142644</v>
       </c>
@@ -25005,7 +25009,7 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
         <v>-0.10356755059223788</v>
       </c>
@@ -25015,9 +25019,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>3.9212282809739429E-2</v>
+        <v>0.03921228280973943</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25025,9 +25029,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>4.5224341311567162E-2</v>
+        <v>0.04522434131156716</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25035,7 +25039,7 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
         <v>-0.12449648774209976</v>
       </c>
@@ -25045,34 +25049,34 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
-        <v>-5.669201222393494E-2</v>
+        <v>-0.05669201222393494</v>
       </c>
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
-        <v>3.8891788845193398E-2</v>
+        <v>0.0388917888451934</v>
       </c>
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
-        <v>5.1961403703766507E-2</v>
+        <v>0.05196140370376651</v>
       </c>
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
         <v>0.7889037199490343</v>
       </c>
@@ -25120,45 +25124,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
-        <v>2.9652072554581301</v>
-      </c>
-      <c r="E76" s="110">
+        <v>2.96520725545813</v>
+      </c>
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.8009037197483639</v>
-      </c>
-      <c r="F76" s="110">
+        <v>4.800903719748364</v>
+      </c>
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>5.9744309832873927</v>
-      </c>
-      <c r="G76" s="110">
+        <v>5.974430983287393</v>
+      </c>
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>6.1912770520778775</v>
       </c>
-      <c r="H76" s="110">
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>6.4264285033093609</v>
-      </c>
-      <c r="I76" s="110">
+        <v>6.426428503309361</v>
+      </c>
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>3.1090274092892587</v>
       </c>
-      <c r="J76" s="110">
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>4.6240642625402879</v>
-      </c>
-      <c r="K76" s="110">
+        <v>4.624064262540288</v>
+      </c>
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>4.7941340446907565</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>5.4588362272112487</v>
-      </c>
-      <c r="M76" s="110">
+        <v>5.458836227211249</v>
+      </c>
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>0.65816620533839221</v>
+        <v>0.6581662053383922</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25168,43 +25172,43 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
-        <v>7.1259354377293658</v>
-      </c>
-      <c r="E77" s="110">
+        <v>7.125935437729366</v>
+      </c>
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>11.684762732109158</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.425313313513858</v>
       </c>
-      <c r="G77" s="110">
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>15.187647656110785</v>
       </c>
-      <c r="H77" s="110">
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>14.777845259820952</v>
       </c>
-      <c r="I77" s="110">
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>7.6965276280425075</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>10.417624367596934</v>
       </c>
-      <c r="K77" s="110">
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>10.209281781772837</v>
       </c>
-      <c r="L77" s="110">
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>13.269902061535682</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>1.6913386204251608</v>
       </c>
@@ -25213,38 +25217,38 @@
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
-        <v>5.8499999046325684</v>
-      </c>
-      <c r="E78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
+        <v>5.849999904632568</v>
+      </c>
+      <c r="E78" s="40" t="n">
         <v>8.369999885559082</v>
       </c>
-      <c r="F78" s="40">
+      <c r="F78" s="40" t="n">
         <v>10.170000076293945</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="40" t="n">
         <v>11.079999923706055</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="40" t="n">
         <v>12.720000267028809</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="40" t="n">
         <v>6.690000057220459</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="40" t="n">
         <v>10.220000267028809</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="40" t="n">
         <v>11.350000381469727</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="40" t="n">
         <v>11.75</v>
       </c>
-      <c r="M78" s="40">
-        <v>7.0500001907348633</v>
+      <c r="M78" s="40" t="n">
+        <v>7.050000190734863</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="17.5" thickBot="1">
@@ -25287,37 +25291,37 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
-        <v>22.409999847412109</v>
-      </c>
-      <c r="E81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
+        <v>22.40999984741211</v>
+      </c>
+      <c r="E81" s="40" t="n">
         <v>22.190000534057617</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="40" t="n">
         <v>19.299999237060547</v>
       </c>
-      <c r="G81" s="40">
-        <v>17.430000305175781</v>
-      </c>
-      <c r="H81" s="40">
+      <c r="G81" s="40" t="n">
+        <v>17.43000030517578</v>
+      </c>
+      <c r="H81" s="40" t="n">
         <v>21.450000762939453</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="40" t="n">
         <v>18.420000076293945</v>
       </c>
-      <c r="J81" s="40">
+      <c r="J81" s="40" t="n">
         <v>38.189998626708984</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="40" t="n">
         <v>28.889999389648438</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="40" t="n">
         <v>16.709999084472656</v>
       </c>
-      <c r="M81" s="40">
+      <c r="M81" s="40" t="n">
         <v>20.299999237060547</v>
       </c>
     </row>
@@ -25325,45 +25329,45 @@
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
-        <v>18.870000839233398</v>
-      </c>
-      <c r="E82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
+        <v>18.8700008392334</v>
+      </c>
+      <c r="E82" s="40" t="n">
         <v>12.109999656677246</v>
       </c>
-      <c r="F82" s="40">
+      <c r="F82" s="40" t="n">
         <v>14.829999923706055</v>
       </c>
-      <c r="G82" s="40">
+      <c r="G82" s="40" t="n">
         <v>11.520000457763672</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="40" t="n">
         <v>19.729999542236328</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="40" t="n">
         <v>12.130000114440918</v>
       </c>
-      <c r="J82" s="40">
+      <c r="J82" s="40" t="n">
         <v>16.780000686645508</v>
       </c>
-      <c r="K82" s="40">
-        <v>14.909999847412109</v>
-      </c>
-      <c r="L82" s="40">
+      <c r="K82" s="40" t="n">
+        <v>14.90999984741211</v>
+      </c>
+      <c r="L82" s="40" t="n">
         <v>17.399999618530273</v>
       </c>
-      <c r="M82" s="40">
-        <v>9.5900001525878906</v>
+      <c r="M82" s="40" t="n">
+        <v>9.59000015258789</v>
       </c>
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
+      <c r="C83" s="110" t="n">
         <v>19.260000228881836</v>
       </c>
     </row>
